--- a/各省各高校近三年录取情况/湖北/武汉科技大学近三年录取情况.xlsx
+++ b/各省各高校近三年录取情况/湖北/武汉科技大学近三年录取情况.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>专业</t>
+          <t>专业组/批次</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -495,27 +495,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>C10204专业组</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>593</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>610</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>601</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -542,27 +542,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>软件工程</t>
+          <t>C10205专业组</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>581</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>595</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>588</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -589,27 +589,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>C10206专业组</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>577</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>590</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>583</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -636,27 +636,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>机械工程</t>
+          <t>C10208专业组</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>575</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>581</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -683,27 +683,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>材料科学与工程</t>
+          <t>C10203专业组</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>585</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>577</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>110</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -730,27 +730,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>土木工程</t>
+          <t>C10207专业组</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>583</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>576</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>95</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -772,42 +772,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>C10211专业组(护理类)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>575</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>571</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>525</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -819,17 +819,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汉语言文学</t>
+          <t>C10209专业组</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>567</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -839,22 +839,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>573</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>85</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>525</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>C10202专业组</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -881,17 +881,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>574</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -908,54 +908,54 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>C10201专业组</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>565</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>578</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>571</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>527</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -965,44 +965,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>539</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>555</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>547</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>485</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1012,356 +1012,356 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>563</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>575</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>569</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>550</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>590</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>605</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>581</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>520</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>52</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>546</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>560</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>553</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>527</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>512</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>530</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>521</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>397</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>515</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>525</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>520</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>496</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科一批B类</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>515</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>535</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>525</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>480</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>560</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>570</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>449</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>520</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>535</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>527</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1371,101 +1371,101 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>综合</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>568</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>585</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>576</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>434</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>134</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>综合</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科A段</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>587</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>605</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>596</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>472</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -1477,49 +1477,49 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>文科</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>002专业组</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>596</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>615</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>605</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>482</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>114</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1529,131 +1529,131 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>001专业组</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>580</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>587</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>482</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>89</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>001专业组</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>568</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>574</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>495</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>73</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>205专业组</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>560</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>570</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>539</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1670,37 +1670,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>203专业组</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>550</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>570</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>560</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>539</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1717,37 +1717,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>204专业组</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>543</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>560</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>551</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>539</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1764,178 +1764,836 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>201专业组</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>532</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>545</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>538</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>540</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>-8</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>202专业组</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>531</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>543</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>537</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>540</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>-9</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>151专业组</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>549</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>570</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>559</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>475</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>74</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>文科</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>111专业组</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>物理类</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>01专业组</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>物理类</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>502第502组</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>物理类</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>501第501组</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>历史类</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>101第101组</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>物理类</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>106第106组</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>575</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>物理类</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>105第105组</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>历史类</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>103第103组</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>甘肃</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>物理类</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>003专业组</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>甘肃</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>物理类</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>002专业组</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>甘肃</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>历史类</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>001专业组</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>48</t>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>物理类</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>500选考化学</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>物理类</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>999不限选考科目</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>历史类</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>999不限选考科目</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>物理类</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>001第001组</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>184</t>
         </is>
       </c>
     </row>
@@ -1950,7 +2608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1971,7 +2629,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>专业</t>
+          <t>专业组/批次</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -2018,27 +2676,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>C10202专业组</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>596</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>615</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>605</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2048,7 +2706,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -2065,27 +2723,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>软件工程</t>
+          <t>C10203专业组</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>589</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>605</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>597</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>110</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2095,7 +2753,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -2112,27 +2770,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>C10204专业组</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>595</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>587</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>95</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2142,7 +2800,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -2159,27 +2817,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>机械工程</t>
+          <t>C10210专业组</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>578</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>590</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>584</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>85</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2189,7 +2847,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -2206,27 +2864,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>材料科学与工程</t>
+          <t>C10209专业组</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>573</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>585</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>579</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2236,7 +2894,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -2253,27 +2911,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>土木工程</t>
+          <t>C10211专业组</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>569</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>574</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2283,7 +2941,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -2295,42 +2953,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>C10206专业组(护理类)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>570</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>575</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>520</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -2342,42 +3000,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汉语言文学</t>
+          <t>C10207专业组</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>564</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>578</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>571</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>520</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -2389,12 +3047,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>C10205专业组</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2404,74 +3062,74 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>575</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>569</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>520</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>C10201专业组</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>564</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>575</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>569</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>526</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -2488,27 +3146,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>577</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>595</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>586</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2518,7 +3176,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -2535,22 +3193,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>588</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>600</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>594</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2565,7 +3223,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -2582,12 +3240,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2597,12 +3255,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>590</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2612,49 +3270,49 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>137</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>585</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>595</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>587</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>448</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2671,247 +3329,247 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>575</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>585</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>580</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>474</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>综合</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>590</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>600</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>488</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>580</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>482</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>88</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>565</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>575</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>570</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>495</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>575</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>595</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>585</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>431</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>144</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2921,143 +3579,143 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>575</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>453</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>117</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>575</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>595</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>585</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>439</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>136</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>文科</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>575</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>570</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>433</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>137</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3067,398 +3725,492 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>580</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>520</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>570</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>577</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>527</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>555</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>545</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>485</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>560</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>575</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>567</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>550</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>575</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>565</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>449</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>106</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>515</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>530</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>522</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>488</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>520</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>545</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>532</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>372</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>148</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>550</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>542</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>420</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>理科</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>本科一批</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>宁夏</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>理科</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>本科一批</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>宁夏</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>文科</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>法学</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>570</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>575</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>43</t>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>本科一批</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -3473,7 +4225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3494,7 +4246,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>专业</t>
+          <t>专业组/批次</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -3541,12 +4293,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>C10202第02组</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>566</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3556,12 +4308,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>575</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3571,7 +4323,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>157</t>
         </is>
       </c>
     </row>
@@ -3588,12 +4340,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>软件工程</t>
+          <t>C10203第03组</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>561</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3603,12 +4355,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>570</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>105</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3618,7 +4370,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>152</t>
         </is>
       </c>
     </row>
@@ -3635,27 +4387,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>C10204第04组</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>560</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>575</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>567</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3665,7 +4417,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -3682,27 +4434,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>机械工程</t>
+          <t>C10210第10组</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>550</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>568</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>559</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3712,7 +4464,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>141</t>
         </is>
       </c>
     </row>
@@ -3729,12 +4481,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>材料科学与工程</t>
+          <t>C10205第05组</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>546</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3744,12 +4496,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>555</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>95</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3759,7 +4511,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -3776,7 +4528,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>土木工程</t>
+          <t>C10209第09组</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3786,17 +4538,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>563</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>554</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>85</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3818,42 +4570,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>C10211第11组</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>544</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>560</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>552</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>409</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -3865,42 +4617,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汉语言文学</t>
+          <t>C10206第06组(护理类)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>539</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>550</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>544</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>409</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -3912,89 +4664,89 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>C10207第07组</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>536</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>555</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>545</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>409</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>127</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>C10201第01组</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>558</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>570</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>564</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>435</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4763,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4021,17 +4773,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>590</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>580</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4058,22 +4810,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>595</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>587</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4088,7 +4840,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -4105,12 +4857,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>575</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4120,7 +4872,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>585</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4135,54 +4887,54 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>138</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>590</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>582</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>429</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>151</t>
         </is>
       </c>
     </row>
@@ -4194,247 +4946,247 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>575</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>471</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>99</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>综合</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>585</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>595</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>587</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>497</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>88</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>575</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>491</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>74</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>560</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>570</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>565</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>523</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>590</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>580</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>428</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>142</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4444,143 +5196,143 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>575</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>570</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>468</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>97</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>物理类</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>590</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>580</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>445</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>125</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>文科</t>
+          <t>历史类</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科批</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>565</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>570</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>565</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>437</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>128</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>565</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4590,264 +5342,264 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>575</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>565</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>572</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>538</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>530</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>550</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>540</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>575</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>582</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>445</t>
-        </is>
-      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>-20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>物理类</t>
+          <t>理科</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>570</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>560</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>449</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>历史类</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>法学</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>510</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>525</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>517</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>484</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4857,131 +5609,225 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>计算机科学与技术</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>515</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>540</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>527</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>442</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>73</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>理科</t>
+          <t>文科</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>电气工程及其自动化</t>
+          <t>本科一批</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>530</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>545</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>537</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>485</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>理科</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>本科一批</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>宁夏</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>理科</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>本科一批</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>宁夏</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>文科</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>法学</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>565</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>575</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>570</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>538</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>27</t>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>本科一批</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>18</t>
         </is>
       </c>
     </row>
